--- a/biology/Botanique/Syngonanthus/Syngonanthus.xlsx
+++ b/biology/Botanique/Syngonanthus/Syngonanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syngonanthus est un genre de plantes monocotylédones. Il comprend environ 250 espèces.  
 Ce sont des plantes herbacées présentes en Afrique et en Amérique essentiellement en Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carptotepala Moldenke
 Comanthera L.B.Sm.</t>
@@ -543,12 +557,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS :
-Syngonanthus flavidulus (Michx.) Ruhl.
-Espèces sélectionnées
-PPP-Index Liste complète</t>
+Syngonanthus flavidulus (Michx.) Ruhl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syngonanthus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syngonanthus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces sélectionnées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PPP-Index Liste complète</t>
         </is>
       </c>
     </row>
